--- a/app/webroot/img/delivery_template.xlsx
+++ b/app/webroot/img/delivery_template.xlsx
@@ -1,133 +1,105 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="2115" windowWidth="18405" windowHeight="9210"/>
+    <workbookView xWindow="630" yWindow="525" windowWidth="22695" windowHeight="11445"/>
   </bookViews>
   <sheets>
-    <sheet name="Page1" sheetId="4" r:id="rId1"/>
+    <sheet name="Page1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-  </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16">
+  <fonts count="14">
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="細明體"/>
-      <family val="3"/>
-      <charset val="136"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="6"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Verdana"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
     </font>
     <font>
       <sz val="8"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="17.5"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
     <font>
       <b/>
       <sz val="12.5"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.5"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
@@ -142,146 +114,124 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="41">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -579,232 +529,231 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:K10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="1" style="1" customWidth="1"/>
-    <col min="3" max="5" width="9.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.140625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.85546875" style="1"/>
     <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.85546875" style="1"/>
     <col min="11" max="11" width="9.28515625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="4.5" customHeight="1"/>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-    </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="32"/>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" ht="2.25" customHeight="1">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" ht="13.5" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="32"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A9" s="25"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A10" s="25"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A11" s="25"/>
+      <c r="A11" s="33"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="25"/>
+      <c r="A12" s="33"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="25"/>
+      <c r="A13" s="33"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="25"/>
+      <c r="A14" s="33"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A15" s="25"/>
+      <c r="A15" s="33"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A16" s="25"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-    </row>
-    <row r="17" spans="1:12" s="9" customFormat="1" ht="12" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-    </row>
-    <row r="18" spans="1:12" s="9" customFormat="1" ht="12" customHeight="1">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+    </row>
+    <row r="17" spans="1:12" s="9" customFormat="1" ht="3" customHeight="1">
+      <c r="A17" s="36"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+    </row>
+    <row r="18" spans="1:12" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A18" s="17"/>
       <c r="B18" s="17"/>
       <c r="C18" s="17"/>
@@ -817,7 +766,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:12" s="9" customFormat="1" ht="21.75" customHeight="1">
+    <row r="19" spans="1:12" s="9" customFormat="1" ht="6" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -830,7 +779,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:12" s="9" customFormat="1" ht="12" customHeight="1">
+    <row r="20" spans="1:12" s="9" customFormat="1" ht="3" customHeight="1">
       <c r="A20" s="20"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -844,37 +793,37 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:12" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="23"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
     </row>
     <row r="22" spans="1:12" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="39"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="39"/>
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1" ht="11.25" customHeight="1">
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
     </row>
     <row r="24" spans="1:12" ht="11.25" customHeight="1">
       <c r="A24" s="12"/>
@@ -896,29 +845,16 @@
       <c r="A34" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:A10"/>
+  <mergeCells count="40">
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="C11:G11"/>
@@ -930,19 +866,28 @@
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" verticalDpi="300" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/webroot/img/delivery_template.xlsx
+++ b/app/webroot/img/delivery_template.xlsx
@@ -11,6 +11,35 @@
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>07/01/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ENTERPRISES</t>
+  </si>
+  <si>
+    <t>G.M.A., CAVITE</t>
+  </si>
+  <si>
+    <t>PO-15062187</t>
+  </si>
+  <si>
+    <t>Paper box</t>
+  </si>
+  <si>
+    <t>200 x 1200 / Bag(s)</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>HowellKit Calabia</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -167,7 +196,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -176,55 +229,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -529,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:H4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -548,27 +577,27 @@
   <sheetData>
     <row r="1" spans="1:11" ht="4.5" customHeight="1"/>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="2.25" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
       <c r="I3" s="3"/>
       <c r="J3" s="29"/>
       <c r="K3" s="29"/>
@@ -594,164 +623,182 @@
       <c r="F5" s="26"/>
       <c r="G5" s="26"/>
       <c r="H5" s="26"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
+      <c r="I5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
+      <c r="C6" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="31">
+        <v>456456</v>
+      </c>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
+      <c r="C7" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="27"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A9" s="28"/>
+      <c r="A9" s="39" t="s">
+        <v>3</v>
+      </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="18"/>
+      <c r="C9" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="18">
+        <v>240000</v>
+      </c>
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A10" s="28"/>
+      <c r="A10" s="39"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="C10" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A11" s="33"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="33"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="33"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="33"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A15" s="33"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A16" s="33"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="1:12" s="9" customFormat="1" ht="3" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
     </row>
     <row r="18" spans="1:12" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A18" s="17"/>
@@ -793,12 +840,16 @@
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:12" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
+      <c r="A21" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="40"/>
       <c r="C21" s="34"/>
       <c r="D21" s="34"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
+      <c r="E21" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="40"/>
       <c r="G21" s="34"/>
       <c r="H21" s="34"/>
       <c r="I21" s="34"/>
@@ -806,24 +857,24 @@
       <c r="K21" s="34"/>
     </row>
     <row r="22" spans="1:12" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="40"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1" ht="11.25" customHeight="1">
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
     </row>
     <row r="24" spans="1:12" ht="11.25" customHeight="1">
       <c r="A24" s="12"/>
@@ -852,20 +903,19 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C16:K16"/>
     <mergeCell ref="G21:K21"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="C15:G15"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="C9:G9"/>
@@ -873,16 +923,17 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B4:H4"/>
     <mergeCell ref="C10:K10"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="C7:K7"/>
     <mergeCell ref="C12:K12"/>
     <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B4:H4"/>
     <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="J8:K8"/>
     <mergeCell ref="A9:A10"/>

--- a/app/webroot/img/delivery_template.xlsx
+++ b/app/webroot/img/delivery_template.xlsx
@@ -195,15 +195,48 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -214,46 +247,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,7 +559,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -571,234 +571,235 @@
     <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" style="1"/>
-    <col min="11" max="11" width="9.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="4.5" customHeight="1"/>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="2.25" customHeight="1">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" ht="13.5" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="30" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="31">
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="40">
         <v>456456</v>
       </c>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="40"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="28"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="23" t="s">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="18">
         <v>240000</v>
       </c>
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A10" s="39"/>
+      <c r="A10" s="38"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A11" s="27"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="27"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+      <c r="K12" s="29"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="27"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="27"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A15" s="27"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A16" s="27"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="29"/>
     </row>
     <row r="17" spans="1:12" s="9" customFormat="1" ht="3" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
     </row>
     <row r="18" spans="1:12" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A18" s="17"/>
@@ -839,42 +840,42 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="40" t="s">
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
+      <c r="A21" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="40" t="s">
+      <c r="B21" s="23"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="40"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
     </row>
     <row r="22" spans="1:12" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="36"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1" ht="11.25" customHeight="1">
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:12" ht="11.25" customHeight="1">
       <c r="A24" s="12"/>
@@ -897,25 +898,16 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="G21:K21"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="C9:G9"/>
@@ -923,20 +915,29 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="G8:I8"/>
     <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="H11:I11"/>
     <mergeCell ref="A2:H3"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="B4:H4"/>
-    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="G21:K21"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="H13:I13"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>

--- a/app/webroot/img/delivery_template.xlsx
+++ b/app/webroot/img/delivery_template.xlsx
@@ -143,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -195,6 +195,51 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -204,56 +249,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,7 +562,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="I6" sqref="I6:K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.85546875" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -569,7 +572,7 @@
     <col min="3" max="5" width="9.85546875" style="1"/>
     <col min="6" max="6" width="9.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" style="1" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" style="1" hidden="1" customWidth="1"/>
@@ -578,228 +581,228 @@
   <sheetData>
     <row r="1" spans="1:11" ht="4.5" customHeight="1"/>
     <row r="2" spans="1:11" s="2" customFormat="1" ht="15" customHeight="1">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" ht="2.25" customHeight="1">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
+      <c r="J3" s="30"/>
+      <c r="K3" s="30"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="28.5" customHeight="1">
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" s="5" customFormat="1" ht="13.5" customHeight="1">
       <c r="A5" s="4"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="39" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="40">
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="24">
         <v>456456</v>
       </c>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" s="5" customFormat="1" ht="17.25" customHeight="1">
       <c r="A7" s="6"/>
-      <c r="C7" s="34" t="s">
+      <c r="C7" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
     </row>
     <row r="8" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="29" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="27" t="s">
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="27"/>
-      <c r="J9" s="18">
+      <c r="I9" s="22"/>
+      <c r="J9" s="21">
         <v>240000</v>
       </c>
       <c r="K9" s="18"/>
     </row>
     <row r="10" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A10" s="38"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
     </row>
     <row r="11" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A11" s="26"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
     </row>
     <row r="12" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A12" s="26"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
     </row>
     <row r="13" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A13" s="26"/>
+      <c r="A13" s="34"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A14" s="26"/>
+      <c r="A14" s="34"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
     </row>
     <row r="15" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A15" s="26"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="18"/>
       <c r="K15" s="18"/>
     </row>
     <row r="16" spans="1:11" ht="16.5" customHeight="1">
-      <c r="A16" s="26"/>
+      <c r="A16" s="34"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="29"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
     </row>
     <row r="17" spans="1:12" s="9" customFormat="1" ht="3" customHeight="1">
-      <c r="A17" s="22"/>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
     </row>
     <row r="18" spans="1:12" s="9" customFormat="1" ht="19.5" customHeight="1">
       <c r="A18" s="17"/>
@@ -814,7 +817,7 @@
       <c r="J18" s="17"/>
       <c r="K18" s="17"/>
     </row>
-    <row r="19" spans="1:12" s="9" customFormat="1" ht="6" customHeight="1">
+    <row r="19" spans="1:12" s="9" customFormat="1" ht="9" customHeight="1">
       <c r="A19" s="17"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -827,7 +830,7 @@
       <c r="J19" s="17"/>
       <c r="K19" s="17"/>
     </row>
-    <row r="20" spans="1:12" s="9" customFormat="1" ht="3" customHeight="1">
+    <row r="20" spans="1:12" s="9" customFormat="1" ht="10.5" customHeight="1">
       <c r="A20" s="20"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
@@ -840,42 +843,42 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:12" s="10" customFormat="1" ht="18" customHeight="1">
-      <c r="A21" s="23" t="s">
+    <row r="21" spans="1:12" s="10" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A21" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="23" t="s">
+      <c r="B21" s="38"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
     </row>
     <row r="22" spans="1:12" s="11" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="31"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="30"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="39"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
     </row>
     <row r="23" spans="1:12" s="11" customFormat="1" ht="11.25" customHeight="1">
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
     </row>
     <row r="24" spans="1:12" ht="11.25" customHeight="1">
       <c r="A24" s="12"/>
@@ -898,26 +901,15 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:K22"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="C22:D22"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="H15:I15"/>
     <mergeCell ref="C11:G11"/>
@@ -929,15 +921,26 @@
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:K22"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="B4:H4"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="A9:A10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
